--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_4_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_4_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2495340.525160309</v>
+        <v>-2497577.221577358</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3378326.849234219</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16558712.03982301</v>
+        <v>16585510.89891386</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>347.7221704741092</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>287.7977187205015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>218.835055180787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>333.6864381084198</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>266.6210949690525</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>139.8939792152981</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>163.939837924303</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>284.6200697443034</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>43.60620160013919</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>118.0056219508402</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>315.9099902864843</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.786859782538162</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>239.5185571033091</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185879</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>161.8175117958952</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>207.0920728594998</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>43.72170015350625</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.16481274941241</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373703</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463175</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789529</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463189</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2767,7 +2767,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V28" t="n">
         <v>184.0057531941873</v>
@@ -2962,13 +2962,13 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789529</v>
+        <v>80.78193823789537</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463133</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>342.4796061034701</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310009</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789537</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463124</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689375</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224541</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534538</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870211</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572844</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.23670158702</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>916.0775323114328</v>
+        <v>1134.473993239633</v>
       </c>
       <c r="C2" t="n">
-        <v>625.3727659270879</v>
+        <v>765.5114762992212</v>
       </c>
       <c r="D2" t="n">
-        <v>625.3727659270879</v>
+        <v>544.4659660155979</v>
       </c>
       <c r="E2" t="n">
-        <v>625.3727659270879</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.312047941846</v>
+        <v>1521.073833303755</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4510,19 +4510,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>323.2572191628418</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1156.179761166176</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C5" t="n">
-        <v>1156.179761166176</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>797.9140625594257</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.779601230298</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1542.779601230298</v>
+        <v>2100.863596243066</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628418</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628418</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>902.4179758042681</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C8" t="n">
-        <v>533.4554588638564</v>
+        <v>825.7212517577275</v>
       </c>
       <c r="D8" t="n">
-        <v>533.4554588638564</v>
+        <v>467.455553150977</v>
       </c>
       <c r="E8" t="n">
-        <v>533.4554588638564</v>
+        <v>81.66730055273274</v>
       </c>
       <c r="F8" t="n">
-        <v>526.5099581146529</v>
+        <v>74.72179980352927</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>60.79839574212017</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.01781586839</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,13 +4884,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4981,22 +4981,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5018,25 +5018,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5239,10 +5239,10 @@
         <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5464,16 +5464,16 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
         <v>97.21709146028584</v>
@@ -5495,31 +5495,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5592,16 +5592,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N18" t="n">
         <v>1171.725741678162</v>
@@ -5695,19 +5695,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>800.6837097077201</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>545.9992215018333</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
         <v>545.9992215018333</v>
@@ -5786,7 +5786,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5835,10 +5835,10 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141288</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N21" t="n">
         <v>1443.347833878256</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324571</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W22" t="n">
-        <v>420.3226148324571</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3330639344398</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>310.3166078765829</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,16 +5981,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823795</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341671</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141287</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678161</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H25" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6181,16 +6181,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010316</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,13 +6242,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D28" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E28" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103134</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982979</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L28" t="n">
         <v>709.8489468649691</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="29">
@@ -6455,28 +6455,28 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6598,16 +6598,16 @@
         <v>659.4602391108331</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6622,10 +6622,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6698,10 +6698,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6786,16 +6786,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N33" t="n">
-        <v>1171.725741678162</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O33" t="n">
-        <v>1841.189502980821</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2361.490124716568</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2345.518533956031</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.55601701562</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1630.617020951508</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1244.828768353264</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>833.8428635636564</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>417.7170890286145</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>109.3461303303137</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>283.0784825878076</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>806.4813411568372</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1508.085497200635</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2305.361850920526</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3100.906972024557</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3806.930033048752</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4371.829998304555</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4718.824586613258</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4643.758424636692</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4433.169749547296</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4179.55500687073</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3848.492119527159</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3495.723464257045</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3122.257705995965</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2732.118374020153</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>985.7752020406868</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>811.3221727595599</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>662.3877630983086</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>503.150308092853</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>356.615750119738</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>219.6890717239233</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>123.744198155611</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>137.052111613752</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>286.1217958158119</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>532.8869237222759</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>840.2070570022374</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1170.06968466627</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1795.877397215486</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2316.178018951233</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2611.287436266947</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>2621.917448364247</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>2482.011343448021</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>2287.096727371799</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>2058.991802991186</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1823.839694759443</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>1569.602338031242</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>1361.750837825709</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>1153.990539060755</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>657.8041820989414</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C37" t="n">
-        <v>557.6880902110756</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>476.391541838781</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>397.298539296429</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>319.2286828385597</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>219.8734521984214</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>138.2755347864058</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>175.3942981406486</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>393.0302736136042</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>708.1928898530778</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1047.210203848605</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1385.204884104497</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1686.530433338238</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1930.580769172265</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2036.864783372765</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1994.609770974632</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1863.509851930225</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1708.544527759772</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1488.23598001337</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1302.371582847525</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1081.774503850605</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>922.605043992629</v>
+        <v>924.2611010045199</v>
       </c>
       <c r="Y37" t="n">
-        <v>770.63255588914</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>1622.425187676631</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215051</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416715</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774091</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477366</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1579.322996860149</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829557</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122056</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2055.398642844495</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089891</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390116</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193586</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2520.760934363148</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215054</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774091</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477366</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499226</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1579.322996860149</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829558</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1069.293752345675</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>1622.42518767663</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903276</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215055</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416719</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774095</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430897</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932527</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160449</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.322996860149</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829558</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604457</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122057</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8532,7 +8532,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>274.3657496970648</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>349.7653003338568</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9483,13 +9483,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>274.3657496970647</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>274.3657496970649</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720747</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9720,25 +9720,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>349.7653003338573</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9960,16 +9960,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>349.765300333857</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>202.5230052237944</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>274.3657496970646</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>165.9802687929765</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>87.13015700775088</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10674,10 +10674,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>360.5026862907256</v>
       </c>
       <c r="O36" t="n">
-        <v>349.7653003338571</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10686,7 +10686,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>19.79750571619297</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10908,22 +10908,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>94.13752431970619</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M41" t="n">
-        <v>39.48321557772681</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>5.100663089359941</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>19.79750571619206</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>199.6230805871093</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>77.47517305050603</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>48.24393196384194</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,22 +22711,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>146.6290191212929</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871784</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>124.4198406026821</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>79.43092547709125</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>136.110280028431</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.4198406026824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1464686.396117235</v>
+        <v>1465338.849124223</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1450707.559974104</v>
+        <v>1465338.849124223</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1450707.559974104</v>
+        <v>1465338.849124223</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1450707.559974104</v>
+        <v>1465338.849124223</v>
       </c>
     </row>
   </sheetData>
@@ -26378,13 +26378,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>216643.6227495945</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125767.3623801285</v>
+        <v>125767.3623801284</v>
       </c>
       <c r="C4" t="n">
         <v>174490.7773218262</v>
@@ -26424,7 +26424,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26448,16 +26448,16 @@
         <v>51722.33279362282</v>
       </c>
       <c r="M4" t="n">
-        <v>54709.97259871806</v>
+        <v>51722.33279362283</v>
       </c>
       <c r="N4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.33279362283</v>
       </c>
       <c r="O4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950704</v>
+        <v>51722.33279362282</v>
       </c>
     </row>
     <row r="5">
@@ -26479,19 +26479,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="K5" t="n">
         <v>97715.1058200254</v>
@@ -26500,16 +26500,16 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>96456.5024909879</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>100332.6710141021</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>100332.6710141021</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>100332.6710141021</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-798594.3196580823</v>
+        <v>-798807.731647961</v>
       </c>
       <c r="C6" t="n">
-        <v>-257349.8553852356</v>
+        <v>-257349.8553852357</v>
       </c>
       <c r="D6" t="n">
         <v>-257349.8553852357</v>
       </c>
       <c r="E6" t="n">
-        <v>-646450.907977915</v>
+        <v>-646548.367103887</v>
       </c>
       <c r="F6" t="n">
-        <v>-121290.871501019</v>
+        <v>-121388.3306269911</v>
       </c>
       <c r="G6" t="n">
-        <v>-121290.871501019</v>
+        <v>-121388.3306269912</v>
       </c>
       <c r="H6" t="n">
-        <v>-121290.8715010189</v>
+        <v>-121388.3306269911</v>
       </c>
       <c r="I6" t="n">
-        <v>-203942.9507173608</v>
+        <v>-203942.9507173607</v>
       </c>
       <c r="J6" t="n">
-        <v>-325860.6578062411</v>
+        <v>-325860.6578062413</v>
       </c>
       <c r="K6" t="n">
         <v>-149437.4386136482</v>
@@ -26552,16 +26552,16 @@
         <v>-149437.4386136482</v>
       </c>
       <c r="M6" t="n">
-        <v>-280808.7899286507</v>
+        <v>-284238.4538474855</v>
       </c>
       <c r="N6" t="n">
-        <v>-347110.8313832036</v>
+        <v>-203942.9507173607</v>
       </c>
       <c r="O6" t="n">
-        <v>-130467.2086336092</v>
+        <v>-149437.4386136482</v>
       </c>
       <c r="P6" t="n">
-        <v>-130467.2086336092</v>
+        <v>-149437.4386136482</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
         <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964071</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859257</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859257</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26747,16 +26747,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>259.3942951391981</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.01167118937133</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>135.847986439896</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>19.6607792729252</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>217.9905321479588</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>101.6178689117502</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>242.6756726418386</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>168.5173763857508</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>97.87417973431064</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>317.135912981819</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>46.76331713866858</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>157.4983735401875</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>12.20343551721282</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32780,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32792,7 +32792,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32801,10 +32801,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32880,7 +32880,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,10 +32892,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>481.4591646285895</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,13 +35969,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>632.1290025749649</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -35984,7 +35984,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>523.623454653089</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>607.5603230950777</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178376</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415088</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>632.1290025749654</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502048</v>
@@ -36680,16 +36680,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>660.1896773843232</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>535.7175786218072</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36847,7 +36847,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
@@ -37154,7 +37154,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>584.7901267475308</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37163,10 +37163,10 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>253.9933015780506</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686864</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>189.411563777185</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37394,10 +37394,10 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887384</v>
       </c>
       <c r="O36" t="n">
-        <v>632.1290025749652</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37406,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,13 +37476,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>558.7186215464197</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>427.332097717719</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M41" t="n">
-        <v>578.4043314079536</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>93.11369587443404</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>558.7186215464188</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>406.716495518634</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
